--- a/src/ControlePaneel.xlsx
+++ b/src/ControlePaneel.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NonSyncing\Github repository\RolstoelSpin\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A7D5E9-AE48-427E-9AD4-2523DD573FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BD8748-9F5B-40C0-B9E2-A6B52D234623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21440" yWindow="-4170" windowWidth="16620" windowHeight="12360" xr2:uid="{5540A81A-7DBE-4FFA-9D21-08C38091FD17}"/>
+    <workbookView xWindow="31140" yWindow="-9090" windowWidth="23040" windowHeight="12360" activeTab="2" xr2:uid="{5540A81A-7DBE-4FFA-9D21-08C38091FD17}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Controle paneel" sheetId="1" r:id="rId1"/>
+    <sheet name="Layout PCB" sheetId="2" r:id="rId2"/>
+    <sheet name="Layout PCBv2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="124">
   <si>
     <t>A</t>
   </si>
@@ -186,13 +188,235 @@
   </si>
   <si>
     <t>SPATIE</t>
+  </si>
+  <si>
+    <t>letters omdraaien?</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>2e arduino</t>
+  </si>
+  <si>
+    <t>1e arduino: loskoppelen GND met schakelaar</t>
+  </si>
+  <si>
+    <t>schakelaar switcht (VA+LR+GND ard+ MID)</t>
+  </si>
+  <si>
+    <t>Aansluiting van bediendinsknoppen: GND aan buitenkant</t>
+  </si>
+  <si>
+    <t>resistor</t>
+  </si>
+  <si>
+    <t>arduino</t>
+  </si>
+  <si>
+    <t>joystick</t>
+  </si>
+  <si>
+    <t>geel joy</t>
+  </si>
+  <si>
+    <t>paars joy</t>
+  </si>
+  <si>
+    <t>zwaer joy</t>
+  </si>
+  <si>
+    <t>rood joy</t>
+  </si>
+  <si>
+    <t>grijs joy</t>
+  </si>
+  <si>
+    <t>bruin joy</t>
+  </si>
+  <si>
+    <t>groen joy</t>
+  </si>
+  <si>
+    <t>oranje joy</t>
+  </si>
+  <si>
+    <t>zwart GND ard</t>
+  </si>
+  <si>
+    <t>rood VCC ard</t>
+  </si>
+  <si>
+    <t>contr. joy</t>
+  </si>
+  <si>
+    <t>contr. knop</t>
+  </si>
+  <si>
+    <t>geel cjoy</t>
+  </si>
+  <si>
+    <t>paars cjoy</t>
+  </si>
+  <si>
+    <t>zwart cjoy</t>
+  </si>
+  <si>
+    <t>rood cjoy</t>
+  </si>
+  <si>
+    <t>grijs cjoy</t>
+  </si>
+  <si>
+    <t>bruin cjoy</t>
+  </si>
+  <si>
+    <t>groen cjoy</t>
+  </si>
+  <si>
+    <t>oranje cjoy</t>
+  </si>
+  <si>
+    <t>gnd</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>geel switch</t>
+  </si>
+  <si>
+    <t>groen switch</t>
+  </si>
+  <si>
+    <t>rood switch</t>
+  </si>
+  <si>
+    <t>blauw1 switch</t>
+  </si>
+  <si>
+    <t>blauw2 switch</t>
+  </si>
+  <si>
+    <t>geel1 ard</t>
+  </si>
+  <si>
+    <t>groen2 ard</t>
+  </si>
+  <si>
+    <t>blauw3 ard</t>
+  </si>
+  <si>
+    <t>blauw4 ard</t>
+  </si>
+  <si>
+    <t>groen5 ard</t>
+  </si>
+  <si>
+    <t>blauw6 ard</t>
+  </si>
+  <si>
+    <t>groen7 ard</t>
+  </si>
+  <si>
+    <t>geel8 ard</t>
+  </si>
+  <si>
+    <t>geel9 ard</t>
+  </si>
+  <si>
+    <t>rood ard10 on/off</t>
+  </si>
+  <si>
+    <t>rood ard10</t>
+  </si>
+  <si>
+    <t>-X</t>
+  </si>
+  <si>
+    <t>X-</t>
+  </si>
+  <si>
+    <t>RX verbinden</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>C 10pF to gnd</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>vin</t>
+  </si>
+  <si>
+    <t>rst</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>joyVA-res</t>
+  </si>
+  <si>
+    <t>joyLR-res</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>hazards</t>
+  </si>
+  <si>
+    <t>horn</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>lights</t>
+  </si>
+  <si>
+    <t>onoff</t>
+  </si>
+  <si>
+    <t>leftturn</t>
+  </si>
+  <si>
+    <t>speeddown</t>
+  </si>
+  <si>
+    <t>speedup</t>
+  </si>
+  <si>
+    <t>righturn</t>
+  </si>
+  <si>
+    <t>ledstrip</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>zwart joy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,8 +432,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,8 +507,37 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -249,11 +545,198 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,8 +769,125 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,7 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470D02E2-3F90-409E-A92D-B7C19E7C7D6A}">
   <dimension ref="A2:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -872,4 +1472,3028 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A24D44C-F669-4029-81E2-84BE3BE90EAE}">
+  <dimension ref="A2:AR41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" style="1" customWidth="1"/>
+    <col min="3" max="42" width="3.77734375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="15"/>
+      <c r="U4" s="31">
+        <v>13</v>
+      </c>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA4" s="34">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI4" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO4" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" s="15"/>
+      <c r="U5" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA5" s="38">
+        <v>11</v>
+      </c>
+      <c r="AB5" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="15"/>
+      <c r="U6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA6" s="38">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH6" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI6" s="16"/>
+      <c r="AO6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" s="35">
+        <v>14</v>
+      </c>
+      <c r="V7" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA7" s="38">
+        <v>9</v>
+      </c>
+      <c r="AB7" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO7" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="35">
+        <v>15</v>
+      </c>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA8" s="38">
+        <v>8</v>
+      </c>
+      <c r="AB8" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF8" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI8" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" s="15"/>
+      <c r="U9" s="35">
+        <v>16</v>
+      </c>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA9" s="38">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH9" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI9" s="16"/>
+      <c r="AO9" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" s="15"/>
+      <c r="U10" s="35">
+        <v>17</v>
+      </c>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="38">
+        <v>6</v>
+      </c>
+      <c r="AB10" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF10" s="15"/>
+      <c r="AO10" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11" s="15"/>
+      <c r="U11" s="35">
+        <v>18</v>
+      </c>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="38">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="T12" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="U12" s="35">
+        <v>19</v>
+      </c>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA12" s="38">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA13" s="38">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO13" s="15"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA14" s="38">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO14" s="15"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO15" s="15"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO16" s="15"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="T17" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="U17" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO17" s="15"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="T18" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U18" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO18" s="15"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="AO19" s="15"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="AO20" s="15"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="AG22" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="AG23" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="AG24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="AG25" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO25" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ25" s="13"/>
+      <c r="AR25" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="F26" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q26" s="15"/>
+      <c r="U26" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG26" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="F27" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="R27" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="V27" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG27" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ27" s="13"/>
+      <c r="AR27" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="M28" s="22"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="T28" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="U28" s="22"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="X28" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y28" s="22"/>
+      <c r="AG28" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO28" s="15"/>
+      <c r="AP28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ28" s="13"/>
+      <c r="AR28" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>1</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="F29" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="R29" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="V29" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG29" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO29" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>2</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="F30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG30" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO30" s="15"/>
+      <c r="AP30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>3</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="AG31" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO31" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP31" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ31" s="13"/>
+      <c r="AR31" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>4</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
+      <c r="AM32" s="13"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="13"/>
+      <c r="AQ32" s="13"/>
+      <c r="AR32" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B33" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U33" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="X33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF33" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG33" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO33" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ33" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="D36" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="D37" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="D38" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="D39" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="D40" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="D41" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9169E7B-E115-469E-805E-9DC04AC7523E}">
+  <dimension ref="A2:AU41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" style="1" customWidth="1"/>
+    <col min="3" max="42" width="3.77734375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="31">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="32"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="34">
+        <v>12</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD4" s="31">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="48">
+        <v>12</v>
+      </c>
+      <c r="AK4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL4" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS4" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="38">
+        <v>11</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD5" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="49">
+        <v>11</v>
+      </c>
+      <c r="AK5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL5" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS5" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="P6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="38">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="49">
+        <v>10</v>
+      </c>
+      <c r="AK6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL6" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS6" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="35">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="38">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD7" s="35">
+        <v>14</v>
+      </c>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="49">
+        <v>9</v>
+      </c>
+      <c r="AK7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL7" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS7" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="P8" s="35">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="38">
+        <v>8</v>
+      </c>
+      <c r="AC8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD8" s="35">
+        <v>15</v>
+      </c>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="49">
+        <v>8</v>
+      </c>
+      <c r="AK8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL8" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS8" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="35">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="38">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD9" s="35">
+        <v>16</v>
+      </c>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="49">
+        <v>7</v>
+      </c>
+      <c r="AK9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL9" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO9" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS9" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="35">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="38">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD10" s="35">
+        <v>17</v>
+      </c>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="49">
+        <v>6</v>
+      </c>
+      <c r="AK10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL10" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS10" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU10" s="45"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="35">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="38">
+        <v>5</v>
+      </c>
+      <c r="AC11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD11" s="35">
+        <v>18</v>
+      </c>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="49">
+        <v>5</v>
+      </c>
+      <c r="AK11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL11" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS11" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU11" s="45"/>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="P12" s="50">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="38">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD12" s="35">
+        <v>19</v>
+      </c>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="49">
+        <v>4</v>
+      </c>
+      <c r="AK12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL12" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS12" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="P13" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="38">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD13" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="49">
+        <v>3</v>
+      </c>
+      <c r="AK13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL13" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS13" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="P14" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="38">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD14" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="49">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="P15" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD15" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO15" s="15"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="P16" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD16" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO16" s="15"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="P17" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD17" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL17" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO17" s="15"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="P18" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD18" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="42"/>
+      <c r="AI18" s="43"/>
+      <c r="AJ18" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO18" s="15"/>
+      <c r="AQ18" s="13"/>
+      <c r="AR18" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="AO19" s="15"/>
+      <c r="AQ19" s="13"/>
+      <c r="AR19" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="AO20" s="15"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="AO21" s="15"/>
+      <c r="AQ21" s="13"/>
+      <c r="AR21" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="AQ22" s="13"/>
+      <c r="AR22" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="AF23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI23" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO23" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="AF24" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO24" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH25" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI25" s="16"/>
+      <c r="AO25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ25" s="13"/>
+      <c r="AR25" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="F26" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q26" s="15"/>
+      <c r="U26" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF26" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG26" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH26" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI26" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO26" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="R27" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="V27" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF27" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG27" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH27" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI27" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP27" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ27" s="13"/>
+      <c r="AR27" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="M28" s="22"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="T28" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="U28" s="22"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="X28" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y28" s="22"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH28" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI28" s="16"/>
+      <c r="AO28" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ28" s="13"/>
+      <c r="AR28" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>1</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="R29" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="V29" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF29" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO29" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>2</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO30" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>3</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="AO31" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP31" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ31" s="13"/>
+      <c r="AR31" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>4</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
+      <c r="AM32" s="13"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="13"/>
+      <c r="AQ32" s="13"/>
+      <c r="AR32" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B33" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U33" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="X33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF33" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG33" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO33" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP33" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ33" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="D36" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="D37" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="D38" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="D39" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="D40" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="D41" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/ControlePaneel.xlsx
+++ b/src/ControlePaneel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NonSyncing\Github repository\RolstoelSpin\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asml-my.sharepoint.com/personal/ignace_follet_asml_com/Documents/Documents/bh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BD8748-9F5B-40C0-B9E2-A6B52D234623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{0646B470-5DB7-4E64-A137-CF534D4BC560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A68100BA-33D8-494A-8A30-85DB2CAB9417}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="-9090" windowWidth="23040" windowHeight="12360" activeTab="2" xr2:uid="{5540A81A-7DBE-4FFA-9D21-08C38091FD17}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{5540A81A-7DBE-4FFA-9D21-08C38091FD17}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle paneel" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="150">
   <si>
     <t>A</t>
   </si>
@@ -406,10 +406,88 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>zwart joy</t>
+    <t>joyLR</t>
+  </si>
+  <si>
+    <t>joyVA</t>
+  </si>
+  <si>
+    <t>joyMID</t>
+  </si>
+  <si>
+    <t>geel</t>
+  </si>
+  <si>
+    <t>groen</t>
+  </si>
+  <si>
+    <t>leds</t>
+  </si>
+  <si>
+    <t>gnd ard</t>
+  </si>
+  <si>
+    <t>to other ard</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>vcc</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>1to1</t>
+  </si>
+  <si>
+    <t>paars</t>
+  </si>
+  <si>
+    <t>grijs</t>
+  </si>
+  <si>
+    <t>bruin</t>
+  </si>
+  <si>
+    <t>oranje</t>
+  </si>
+  <si>
+    <t>rood</t>
+  </si>
+  <si>
+    <t>zwart</t>
+  </si>
+  <si>
+    <t>cjoy paars</t>
+  </si>
+  <si>
+    <t>cjoy bruin</t>
+  </si>
+  <si>
+    <t>cjoy oranje</t>
+  </si>
+  <si>
+    <t>10pF to gnd</t>
+  </si>
+  <si>
+    <t>R&gt;bruin</t>
+  </si>
+  <si>
+    <t>R&gt;paars</t>
+  </si>
+  <si>
+    <t>R&gt;oranje</t>
+  </si>
+  <si>
+    <t>switch zwart</t>
   </si>
 </sst>
 </file>
@@ -537,7 +615,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -731,12 +809,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFC000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFC000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFC000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFC000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFC000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFC000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,7 +932,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -839,19 +953,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -866,7 +974,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -883,6 +991,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1478,9 +1610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A24D44C-F669-4029-81E2-84BE3BE90EAE}">
   <dimension ref="A2:AR41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1681,20 +1811,20 @@
         <v>59</v>
       </c>
       <c r="T4" s="15"/>
-      <c r="U4" s="31">
+      <c r="U4" s="30">
         <v>13</v>
       </c>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="33" t="s">
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="AA4" s="34">
+      <c r="AA4" s="33">
         <v>12</v>
       </c>
-      <c r="AB4" s="45" t="s">
+      <c r="AB4" s="42" t="s">
         <v>111</v>
       </c>
       <c r="AF4" s="15" t="s">
@@ -1732,20 +1862,16 @@
         <v>60</v>
       </c>
       <c r="T5" s="15"/>
-      <c r="U5" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="37" t="s">
+      <c r="U5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z5" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="AA5" s="38">
+      <c r="AA5" s="35">
         <v>11</v>
       </c>
-      <c r="AB5" s="45" t="s">
+      <c r="AB5" s="42" t="s">
         <v>110</v>
       </c>
       <c r="AF5" s="15" t="s">
@@ -1783,27 +1909,23 @@
         <v>61</v>
       </c>
       <c r="T6" s="15"/>
-      <c r="U6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="37" t="s">
+      <c r="U6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z6" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="AA6" s="38">
+      <c r="AA6" s="35">
         <v>10</v>
       </c>
-      <c r="AB6" s="45" t="s">
+      <c r="AB6" s="42" t="s">
         <v>112</v>
       </c>
       <c r="AF6" s="15"/>
       <c r="AG6" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="AH6" s="29" t="s">
+      <c r="AH6" s="28" t="s">
         <v>98</v>
       </c>
       <c r="AI6" s="16"/>
@@ -1829,22 +1951,19 @@
       <c r="D7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U7" s="34">
         <v>14</v>
       </c>
-      <c r="V7" s="39" t="s">
+      <c r="V7" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="40" t="s">
+      <c r="Z7" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="AA7" s="38">
+      <c r="AA7" s="35">
         <v>9</v>
       </c>
-      <c r="AB7" s="45" t="s">
+      <c r="AB7" s="42" t="s">
         <v>113</v>
       </c>
       <c r="AF7" s="15" t="s">
@@ -1880,20 +1999,16 @@
       </c>
       <c r="D8" s="16"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="35">
+      <c r="U8" s="34">
         <v>15</v>
       </c>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="37" t="s">
+      <c r="Z8" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AA8" s="38">
+      <c r="AA8" s="35">
         <v>8</v>
       </c>
-      <c r="AB8" s="45" t="s">
+      <c r="AB8" s="42" t="s">
         <v>114</v>
       </c>
       <c r="AF8" s="15" t="s">
@@ -1931,27 +2046,23 @@
         <v>63</v>
       </c>
       <c r="T9" s="15"/>
-      <c r="U9" s="35">
+      <c r="U9" s="34">
         <v>16</v>
       </c>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="37" t="s">
+      <c r="Z9" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AA9" s="38">
+      <c r="AA9" s="35">
         <v>7</v>
       </c>
-      <c r="AB9" s="45" t="s">
+      <c r="AB9" s="42" t="s">
         <v>117</v>
       </c>
       <c r="AF9" s="15"/>
       <c r="AG9" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="AH9" s="29" t="s">
+      <c r="AH9" s="28" t="s">
         <v>98</v>
       </c>
       <c r="AI9" s="16"/>
@@ -1978,18 +2089,14 @@
         <v>64</v>
       </c>
       <c r="T10" s="15"/>
-      <c r="U10" s="35">
+      <c r="U10" s="34">
         <v>17</v>
       </c>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="38">
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="35">
         <v>6</v>
       </c>
-      <c r="AB10" s="45" t="s">
+      <c r="AB10" s="42" t="s">
         <v>109</v>
       </c>
       <c r="AE10" s="1" t="s">
@@ -2019,18 +2126,14 @@
         <v>65</v>
       </c>
       <c r="T11" s="15"/>
-      <c r="U11" s="35">
+      <c r="U11" s="34">
         <v>18</v>
       </c>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="38">
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="35">
         <v>5</v>
       </c>
-      <c r="AB11" s="45" t="s">
+      <c r="AB11" s="42" t="s">
         <v>108</v>
       </c>
       <c r="AE11" s="1" t="s">
@@ -2058,23 +2161,19 @@
       <c r="D12" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="T12" s="46" t="s">
+      <c r="T12" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="U12" s="35">
+      <c r="U12" s="34">
         <v>19</v>
       </c>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="37" t="s">
+      <c r="Z12" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AA12" s="38">
+      <c r="AA12" s="35">
         <v>4</v>
       </c>
-      <c r="AB12" s="45" t="s">
+      <c r="AB12" s="42" t="s">
         <v>116</v>
       </c>
       <c r="AO12" s="15" t="s">
@@ -2094,20 +2193,16 @@
       </c>
       <c r="B13" s="13"/>
       <c r="T13" s="15"/>
-      <c r="U13" s="35" t="s">
+      <c r="U13" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="37" t="s">
+      <c r="Z13" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="AA13" s="38">
+      <c r="AA13" s="35">
         <v>3</v>
       </c>
-      <c r="AB13" s="45" t="s">
+      <c r="AB13" s="42" t="s">
         <v>118</v>
       </c>
       <c r="AO13" s="15"/>
@@ -2122,20 +2217,16 @@
       </c>
       <c r="B14" s="13"/>
       <c r="T14" s="15"/>
-      <c r="U14" s="35" t="s">
+      <c r="U14" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="37" t="s">
+      <c r="Z14" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="AA14" s="38">
+      <c r="AA14" s="35">
         <v>2</v>
       </c>
-      <c r="AB14" s="45" t="s">
+      <c r="AB14" s="42" t="s">
         <v>119</v>
       </c>
       <c r="AO14" s="15"/>
@@ -2150,15 +2241,11 @@
       </c>
       <c r="B15" s="13"/>
       <c r="T15" s="15"/>
-      <c r="U15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="V15" s="36"/>
-      <c r="W15" s="36"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="38" t="s">
+      <c r="U15" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="35" t="s">
         <v>79</v>
       </c>
       <c r="AO15" s="15"/>
@@ -2173,15 +2260,11 @@
       </c>
       <c r="B16" s="13"/>
       <c r="T16" s="15"/>
-      <c r="U16" s="35" t="s">
+      <c r="U16" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="38" t="s">
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="35" t="s">
         <v>105</v>
       </c>
       <c r="AO16" s="15"/>
@@ -2198,18 +2281,14 @@
       <c r="T17" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="U17" s="35" t="s">
+      <c r="U17" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="38" t="s">
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="AB17" s="30" t="s">
+      <c r="AB17" s="29" t="s">
         <v>101</v>
       </c>
       <c r="AO17" s="15"/>
@@ -2226,15 +2305,15 @@
       <c r="T18" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="U18" s="41" t="s">
+      <c r="U18" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="44" t="s">
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="41" t="s">
         <v>103</v>
       </c>
       <c r="AO18" s="15"/>
@@ -2368,7 +2447,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="13"/>
-      <c r="F26" s="28" t="s">
+      <c r="F26" t="s">
         <v>82</v>
       </c>
       <c r="J26" s="16" t="s">
@@ -2875,6 +2954,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -2882,8 +2964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9169E7B-E115-469E-805E-9DC04AC7523E}">
   <dimension ref="A2:AU41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3078,103 +3160,130 @@
         <v>24</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P4" s="31">
+      <c r="C4" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="30">
         <v>13</v>
       </c>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32" t="s">
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="34">
+      <c r="U4" s="31"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="33">
         <v>12</v>
       </c>
+      <c r="X4" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="AC4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD4" s="31">
+      <c r="AD4" s="30">
         <v>13</v>
       </c>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32" t="s">
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="48">
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="45">
         <v>12</v>
       </c>
       <c r="AK4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AL4" s="45" t="s">
+      <c r="AL4" s="42" t="s">
         <v>119</v>
-      </c>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="14" t="s">
-        <v>21</v>
       </c>
       <c r="AQ4" s="13"/>
       <c r="AR4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AS4" s="16" t="s">
-        <v>95</v>
-      </c>
+      <c r="AS4" s="16"/>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="38">
+      <c r="E5" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V5" s="15"/>
+      <c r="W5" s="35">
         <v>11</v>
       </c>
+      <c r="X5" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="AC5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD5" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="49">
+      <c r="AD5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH5" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI5" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ5" s="46">
         <v>11</v>
       </c>
       <c r="AK5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AL5" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO5" s="15" t="s">
-        <v>82</v>
+      <c r="AO5" s="43" t="s">
+        <v>119</v>
       </c>
       <c r="AP5" s="14" t="s">
         <v>21</v>
@@ -3183,53 +3292,72 @@
       <c r="AR5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AS5" s="16" t="s">
-        <v>94</v>
-      </c>
+      <c r="AS5" s="16"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" s="15"/>
+      <c r="W6" s="35">
+        <v>10</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI6" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="P6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="38">
+      <c r="AJ6" s="46">
         <v>10</v>
       </c>
-      <c r="AC6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="49">
-        <v>10</v>
-      </c>
       <c r="AK6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AL6" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO6" s="15"/>
+      <c r="AN6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO6" s="43" t="s">
+        <v>118</v>
+      </c>
       <c r="AP6" s="14" t="s">
         <v>21</v>
       </c>
@@ -3237,54 +3365,70 @@
       <c r="AR6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AS6" s="16" t="s">
-        <v>93</v>
-      </c>
+      <c r="AS6" s="16"/>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="35">
+      <c r="C7" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="34">
         <v>14</v>
       </c>
-      <c r="Q7" s="39"/>
       <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="38">
+      <c r="V7" s="37"/>
+      <c r="W7" s="35">
         <v>9</v>
       </c>
+      <c r="X7" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="AC7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD7" s="35">
+      <c r="AD7" s="34">
         <v>14</v>
       </c>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="49">
+      <c r="AE7" s="36"/>
+      <c r="AH7" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ7" s="46">
         <v>9</v>
       </c>
       <c r="AK7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AL7" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO7" s="15" t="s">
-        <v>85</v>
+      <c r="AO7" s="43" t="s">
+        <v>116</v>
       </c>
       <c r="AP7" s="14" t="s">
         <v>21</v>
@@ -3293,51 +3437,56 @@
       <c r="AR7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AS7" s="16" t="s">
-        <v>92</v>
-      </c>
+      <c r="AS7" s="16"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="P8" s="35">
+      <c r="H8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="34">
         <v>15</v>
       </c>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="38">
+      <c r="V8" s="15"/>
+      <c r="W8" s="35">
         <v>8</v>
       </c>
+      <c r="X8" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="AC8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD8" s="35">
+      <c r="AD8" s="34">
         <v>15</v>
       </c>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="49">
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="46">
         <v>8</v>
       </c>
       <c r="AK8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AL8" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO8" s="15"/>
+      <c r="AL8" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO8" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="AP8" s="14" t="s">
         <v>21</v>
       </c>
@@ -3345,55 +3494,65 @@
       <c r="AR8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AS8" s="16" t="s">
-        <v>91</v>
-      </c>
+      <c r="AS8" s="16"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" s="35">
+      <c r="C9" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="34">
         <v>16</v>
       </c>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="38">
+      <c r="V9" s="15"/>
+      <c r="W9" s="35">
         <v>7</v>
       </c>
+      <c r="X9" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="AC9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD9" s="35">
+      <c r="AD9" s="34">
         <v>16</v>
       </c>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="49">
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="46">
         <v>7</v>
       </c>
       <c r="AK9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AL9" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO9" s="15" t="s">
-        <v>86</v>
-      </c>
+      <c r="AL9" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO9" s="15"/>
       <c r="AP9" s="14" t="s">
         <v>21</v>
       </c>
@@ -3401,53 +3560,74 @@
       <c r="AR9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AS9" s="16" t="s">
-        <v>90</v>
-      </c>
+      <c r="AS9" s="16"/>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="35">
+      <c r="E10" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="34">
         <v>17</v>
       </c>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="38">
+      <c r="V10" s="15"/>
+      <c r="W10" s="35">
         <v>6</v>
       </c>
+      <c r="X10" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="AC10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD10" s="35">
+      <c r="AD10" s="47">
         <v>17</v>
       </c>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="49">
+      <c r="AE10" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="46">
         <v>6</v>
       </c>
       <c r="AK10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AL10" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO10" s="15"/>
+      <c r="AL10" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO10" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="AP10" s="14" t="s">
         <v>21</v>
       </c>
@@ -3455,56 +3635,69 @@
       <c r="AR10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AS10" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU10" s="45"/>
+      <c r="AS10" s="16"/>
+      <c r="AU10" s="42"/>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="13"/>
-      <c r="C11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" s="35">
+      <c r="C11" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="34">
         <v>18</v>
       </c>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="38">
+      <c r="V11" s="15"/>
+      <c r="W11" s="35">
         <v>5</v>
       </c>
+      <c r="X11" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="AC11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD11" s="35">
+      <c r="AD11" s="47">
         <v>18</v>
       </c>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="49">
+      <c r="AE11" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="46">
         <v>5</v>
       </c>
       <c r="AK11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AL11" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO11" s="15" t="s">
-        <v>83</v>
-      </c>
+      <c r="AL11" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO11" s="15"/>
       <c r="AP11" s="14" t="s">
         <v>21</v>
       </c>
@@ -3512,57 +3705,69 @@
       <c r="AR11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AS11" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU11" s="45"/>
+      <c r="AS11" s="16"/>
+      <c r="AU11" s="42"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="C12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="O12" s="46" t="s">
+      <c r="E12" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="P12" s="50">
+      <c r="P12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="47">
         <v>19</v>
       </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="38">
+      <c r="V12" s="15"/>
+      <c r="W12" s="35">
         <v>4</v>
       </c>
+      <c r="X12" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="AC12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD12" s="35">
+      <c r="AD12" s="34">
         <v>19</v>
       </c>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="49">
+      <c r="AG12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="46">
         <v>4</v>
       </c>
       <c r="AK12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AL12" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO12" s="15"/>
+      <c r="AL12" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO12" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="AP12" s="14" t="s">
         <v>21</v>
       </c>
@@ -3570,49 +3775,46 @@
       <c r="AR12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AS12" s="16" t="s">
-        <v>87</v>
-      </c>
+      <c r="AS12" s="16"/>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="P13" s="35" t="s">
+      <c r="P13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="38">
+      <c r="V13" s="15"/>
+      <c r="W13" s="35">
         <v>3</v>
       </c>
+      <c r="X13" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="AC13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD13" s="35" t="s">
+      <c r="AD13" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="49">
+      <c r="AH13" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="46">
         <v>3</v>
       </c>
       <c r="AK13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AL13" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO13" s="15" t="s">
-        <v>84</v>
-      </c>
+      <c r="AL13" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO13" s="15"/>
       <c r="AP13" s="14" t="s">
         <v>21</v>
       </c>
@@ -3620,46 +3822,47 @@
       <c r="AR13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AS13" s="16" t="s">
-        <v>96</v>
-      </c>
+      <c r="AS13" s="16"/>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="P14" s="35" t="s">
+      <c r="P14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="38">
+      <c r="V14" s="15"/>
+      <c r="W14" s="35">
         <v>2</v>
       </c>
+      <c r="X14" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="AC14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD14" s="35" t="s">
+      <c r="AD14" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="49">
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="46">
         <v>2</v>
       </c>
       <c r="AK14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AO14" s="15"/>
-      <c r="AP14" s="1" t="s">
-        <v>70</v>
+      <c r="AL14" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP14" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="AQ14" s="13"/>
       <c r="AR14" s="12" t="s">
@@ -3671,35 +3874,39 @@
         <v>18</v>
       </c>
       <c r="B15" s="13"/>
-      <c r="P15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="38" t="s">
+      <c r="P15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="15"/>
+      <c r="W15" s="46" t="s">
         <v>79</v>
       </c>
+      <c r="X15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y15" s="16" t="s">
+        <v>128</v>
+      </c>
       <c r="AC15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="38" t="s">
+      <c r="AD15" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="35" t="s">
         <v>79</v>
       </c>
       <c r="AK15" s="14" t="s">
         <v>21</v>
       </c>
       <c r="AO15" s="15"/>
+      <c r="AP15" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="AQ15" s="13"/>
       <c r="AR15" s="12" t="s">
         <v>18</v>
@@ -3710,29 +3917,27 @@
         <v>25</v>
       </c>
       <c r="B16" s="13"/>
-      <c r="P16" s="35" t="s">
+      <c r="P16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="38" t="s">
+      <c r="V16" s="15"/>
+      <c r="W16" s="35" t="s">
         <v>105</v>
       </c>
+      <c r="X16" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="AC16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD16" s="35" t="s">
+      <c r="AD16" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="AE16" s="36"/>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="38" t="s">
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="35" t="s">
         <v>105</v>
       </c>
       <c r="AK16" s="14" t="s">
@@ -3749,35 +3954,42 @@
         <v>8</v>
       </c>
       <c r="B17" s="13"/>
-      <c r="P17" s="50" t="s">
+      <c r="P17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="49" t="s">
+      <c r="R17" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="V17" s="29" t="s">
         <v>101</v>
       </c>
+      <c r="W17" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="X17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="50" t="s">
+        <v>128</v>
+      </c>
       <c r="AC17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD17" s="50" t="s">
+      <c r="AD17" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="49" t="s">
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="46" t="s">
         <v>101</v>
       </c>
       <c r="AK17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AL17" s="30" t="s">
+      <c r="AL17" s="29" t="s">
         <v>101</v>
       </c>
       <c r="AO17" s="15"/>
@@ -3791,29 +4003,46 @@
         <v>9</v>
       </c>
       <c r="B18" s="13"/>
-      <c r="P18" s="51" t="s">
+      <c r="G18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="44" t="s">
+      <c r="P18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="R18" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="41" t="s">
         <v>103</v>
       </c>
+      <c r="X18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB18" s="15" t="s">
+        <v>129</v>
+      </c>
       <c r="AC18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD18" s="51" t="s">
+      <c r="AD18" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="AE18" s="42"/>
-      <c r="AF18" s="42"/>
-      <c r="AG18" s="42"/>
-      <c r="AH18" s="42"/>
-      <c r="AI18" s="43"/>
-      <c r="AJ18" s="44" t="s">
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="40"/>
+      <c r="AJ18" s="41" t="s">
         <v>103</v>
       </c>
       <c r="AK18" s="14" t="s">
@@ -3830,6 +4059,12 @@
         <v>19</v>
       </c>
       <c r="B19" s="13"/>
+      <c r="G19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>120</v>
+      </c>
       <c r="AO19" s="15"/>
       <c r="AQ19" s="13"/>
       <c r="AR19" s="12" t="s">
@@ -3841,6 +4076,9 @@
         <v>3</v>
       </c>
       <c r="B20" s="13"/>
+      <c r="G20" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="AO20" s="15"/>
       <c r="AQ20" s="13"/>
       <c r="AR20" s="12" t="s">
@@ -3852,6 +4090,12 @@
         <v>10</v>
       </c>
       <c r="B21" s="13"/>
+      <c r="G21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>128</v>
+      </c>
       <c r="AO21" s="15"/>
       <c r="AQ21" s="13"/>
       <c r="AR21" s="12" t="s">
@@ -3873,52 +4117,17 @@
         <v>6</v>
       </c>
       <c r="B23" s="13"/>
-      <c r="AF23" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI23" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO23" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP23" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="AF23" s="15"/>
       <c r="AQ23" s="13"/>
       <c r="AR23" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="13"/>
-      <c r="AF24" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG24" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH24" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO24" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP24" s="14" t="s">
-        <v>21</v>
-      </c>
       <c r="AQ24" s="13"/>
       <c r="AR24" s="12" t="s">
         <v>23</v>
@@ -3929,19 +4138,21 @@
         <v>20</v>
       </c>
       <c r="B25" s="13"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH25" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI25" s="16"/>
-      <c r="AO25" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP25" s="14" t="s">
-        <v>21</v>
+      <c r="AE25" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG25" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH25" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI25" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ25" s="51"/>
+      <c r="AK25" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="AQ25" s="13"/>
       <c r="AR25" s="12" t="s">
@@ -3953,7 +4164,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="13"/>
-      <c r="F26" s="28" t="s">
+      <c r="F26" t="s">
         <v>82</v>
       </c>
       <c r="J26" s="16" t="s">
@@ -3972,24 +4183,20 @@
       <c r="Y26" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="AF26" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG26" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH26" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI26" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO26" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP26" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="AE26" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG26" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH26" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK26" s="16"/>
       <c r="AQ26" s="13"/>
       <c r="AR26" s="12" t="s">
         <v>21</v>
@@ -4000,12 +4207,6 @@
         <v>5</v>
       </c>
       <c r="B27" s="13"/>
-      <c r="C27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="F27" s="18" t="s">
         <v>80</v>
       </c>
@@ -4046,24 +4247,20 @@
       <c r="Y27" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AF27" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG27" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH27" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI27" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO27" s="15" t="s">
+      <c r="AE27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AP27" s="14" t="s">
-        <v>69</v>
-      </c>
+      <c r="AG27" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH27" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI27" s="16"/>
+      <c r="AJ27" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK27" s="16"/>
       <c r="AQ27" s="13"/>
       <c r="AR27" s="12" t="s">
         <v>5</v>
@@ -4074,12 +4271,6 @@
         <v>1</v>
       </c>
       <c r="B28" s="13"/>
-      <c r="C28" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="F28" s="21"/>
       <c r="G28" s="26" t="s">
         <v>81</v>
@@ -4120,19 +4311,24 @@
         <v>81</v>
       </c>
       <c r="Y28" s="22"/>
+      <c r="AD28" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE28" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="AF28" s="15"/>
-      <c r="AG28" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH28" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI28" s="16"/>
-      <c r="AO28" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP28" s="14" t="s">
-        <v>21</v>
+      <c r="AG28" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH28" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI28" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK28" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="AQ28" s="13"/>
       <c r="AR28" s="12" t="s">
@@ -4144,9 +4340,6 @@
         <v>1</v>
       </c>
       <c r="B29" s="13"/>
-      <c r="C29" s="14" t="s">
-        <v>121</v>
-      </c>
       <c r="F29" s="23" t="s">
         <v>80</v>
       </c>
@@ -4187,34 +4380,30 @@
       <c r="Y29" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="AE29" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF29" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO29" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP29" s="14" t="s">
-        <v>21</v>
+      <c r="AE29" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH29" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="51" t="s">
+        <v>144</v>
       </c>
       <c r="AQ29" s="13"/>
       <c r="AR29" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>2</v>
       </c>
       <c r="B30" s="13"/>
-      <c r="C30" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F30" s="1" t="s">
         <v>79</v>
       </c>
@@ -4245,17 +4434,22 @@
       <c r="Y30" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AE30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO30" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP30" s="14" t="s">
-        <v>21</v>
+      <c r="Z30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE30" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH30" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI30" s="16"/>
+      <c r="AJ30" s="52" t="s">
+        <v>66</v>
       </c>
       <c r="AQ30" s="13"/>
       <c r="AR30" s="12">
@@ -4267,12 +4461,6 @@
         <v>3</v>
       </c>
       <c r="B31" s="13"/>
-      <c r="AO31" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP31" s="14" t="s">
-        <v>21</v>
-      </c>
       <c r="AQ31" s="13"/>
       <c r="AR31" s="12">
         <v>3</v>
@@ -4495,5 +4683,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
--- a/src/ControlePaneel.xlsx
+++ b/src/ControlePaneel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asml-my.sharepoint.com/personal/ignace_follet_asml_com/Documents/Documents/bh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NonSyncing\Github repository\RolstoelSpin\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{0646B470-5DB7-4E64-A137-CF534D4BC560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A68100BA-33D8-494A-8A30-85DB2CAB9417}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C549AAC5-54A3-4390-B508-AEFD1CB12E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{5540A81A-7DBE-4FFA-9D21-08C38091FD17}"/>
   </bookViews>

--- a/src/ControlePaneel.xlsx
+++ b/src/ControlePaneel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NonSyncing\Github repository\RolstoelSpin\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C549AAC5-54A3-4390-B508-AEFD1CB12E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208E07DA-1E8F-4872-888B-4BD5B540354D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{5540A81A-7DBE-4FFA-9D21-08C38091FD17}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5540A81A-7DBE-4FFA-9D21-08C38091FD17}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle paneel" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="151">
   <si>
     <t>A</t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>switch zwart</t>
+  </si>
+  <si>
+    <t>Spiderlily</t>
   </si>
 </sst>
 </file>
@@ -1337,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470D02E2-3F90-409E-A92D-B7C19E7C7D6A}">
-  <dimension ref="A2:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1348,261 +1351,266 @@
     <col min="1" max="10" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="8">
+    <row r="1" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="E1" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C3" s="8">
         <v>3</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D3" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E3" s="8">
         <v>5</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F3" s="8">
         <v>6</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G3" s="8">
         <v>7</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H3" s="8">
         <v>8</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I3" s="8">
         <v>9</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J3" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:10" s="4" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2964,7 +2972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9169E7B-E115-469E-805E-9DC04AC7523E}">
   <dimension ref="A2:AU41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
